--- a/results/mp/logistic/corona/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,9 @@
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -73,19 +67,25 @@
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
@@ -94,76 +94,67 @@
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>good</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -521,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -590,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,16 +652,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4126984126984127</v>
+        <v>0.3430232558139535</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="D6">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,137 +781,89 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3725490196078431</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>127</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K8">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L8">
+        <v>88</v>
+      </c>
+      <c r="M8">
+        <v>88</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>0.8839285714285714</v>
-      </c>
-      <c r="L7">
-        <v>99</v>
-      </c>
-      <c r="M7">
-        <v>99</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C8">
-        <v>172</v>
-      </c>
-      <c r="D8">
-        <v>172</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>344</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="L8">
-        <v>19</v>
-      </c>
-      <c r="M8">
-        <v>19</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1677852348993289</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>124</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8407310704960835</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L9">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M9">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,21 +875,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,21 +927,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.795774647887324</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1010,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1036,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7578125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1067,16 +1010,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7575757575757576</v>
+        <v>0.75625</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1088,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.75625</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1114,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>0.75</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1140,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1166,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1192,15 +1135,15 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
         <v>34</v>
@@ -1218,12 +1161,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
         <v>0.7037037037037037</v>
@@ -1249,16 +1192,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1270,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1296,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6857142857142857</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1322,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.675</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1348,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.6744186046511628</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1374,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.6507936507936508</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1400,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.611764705882353</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L28">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="M28">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1426,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1452,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5648535564853556</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L30">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1478,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5423728813559322</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L31">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M31">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1504,47 +1447,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5285714285714286</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>37</v>
-      </c>
-      <c r="M32">
-        <v>37</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5230769230769231</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1556,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.4831460674157304</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1582,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3013698630136986</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1608,33 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="L36">
-        <v>21</v>
-      </c>
-      <c r="M36">
-        <v>21</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
